--- a/Data/TrafficVolume.xlsx
+++ b/Data/TrafficVolume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main\School Work\Econ\R\Forecasting Lab 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c1929351461b30c/Documents/ECON436_SalesTax/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3448B4E2-2383-4EED-A885-9ACC2786D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{3448B4E2-2383-4EED-A885-9ACC2786D119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A1F04B7-6AFC-40B9-9B80-651250202513}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{E2AA3CAF-0B4E-49BD-B79F-75CDC687337D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E2AA3CAF-0B4E-49BD-B79F-75CDC687337D}"/>
   </bookViews>
   <sheets>
     <sheet name="TrafficVolume" sheetId="1" r:id="rId1"/>
@@ -548,8 +548,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -928,12 +929,12 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>127</v>
       </c>
@@ -993,8 +994,11 @@
       <c r="D2">
         <v>28623</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E2" s="1">
+        <v>31075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>127</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>31088</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>127</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>28477</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>127</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>27549</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>127</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>27635</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>127</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>25409</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>127</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>28750</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>127</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>30498</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>127</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>29174</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>127</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>27530</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>127</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>26398</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>127</v>
       </c>
@@ -1478,7 +1482,7 @@
         <v>25809</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>127</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>24030</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>127</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>23574</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>127</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>23023</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>127</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>22793</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>127</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>21230</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>127</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>21160</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>127</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>127</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>20952</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>127</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>19216</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>127</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>20919</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>127</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>20278</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>127</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>19522</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>127</v>
       </c>
@@ -2047,7 +2051,7 @@
         <v>18690</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>127</v>
       </c>
